--- a/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
+++ b/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B85B02-90B0-43C7-B8E7-F78C6B18B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4329F4-6393-4639-A71E-43359EF1C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="1695" windowWidth="28800" windowHeight="15555" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
+    <workbookView xWindow="6600" yWindow="2205" windowWidth="34410" windowHeight="15555" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="CellTest" sheetId="4" r:id="rId3"/>
-    <sheet name="Todo.Lambda" sheetId="3" r:id="rId4"/>
+    <sheet name="Main Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Extra Info" sheetId="1" r:id="rId2"/>
+    <sheet name="info_type Info" sheetId="6" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId4"/>
+    <sheet name="scratchCellTest" sheetId="4" r:id="rId5"/>
+    <sheet name="Todo.Lambda" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Fullname">Sheet1!$D$24</definedName>
-    <definedName name="Fullname_WithSheet">Sheet1!$D$13</definedName>
+    <definedName name="Fullname">'Extra Info'!$D$24</definedName>
+    <definedName name="Fullname_WithSheet">'Extra Info'!$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>C:\Users\Username\..\Dynamicasdf</t>
   </si>
@@ -164,13 +166,131 @@
   </si>
   <si>
     <t>xml xpath query on same url, wrapper</t>
+  </si>
+  <si>
+    <t>Summarize Cell Data Copntents</t>
+  </si>
+  <si>
+    <t>using integer(), cell(), isformula(), etc
+    summarizes as humanized string[s]</t>
+  </si>
+  <si>
+    <t>Cell Func Value</t>
+  </si>
+  <si>
+    <t>Using info_type values</t>
+  </si>
+  <si>
+    <t>info_type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>parentheses</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>reference of first cell, *in a reference*, as text</t>
+  </si>
+  <si>
+    <t>bool: is cell formatted in color for negatives? 1/0</t>
+  </si>
+  <si>
+    <t>value of first cell. Not a formula.</t>
+  </si>
+  <si>
+    <t>column number of (first) cell</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>full path including worksheet</t>
+  </si>
+  <si>
+    <t>first cells format string
+- Returns "-" at the end of string if is formatted in color for negative values
+- Returns "()" at the end of the text value if the cell is formatted with parentheses for positive or all values</t>
+  </si>
+  <si>
+    <t>bool: is formatted with parentheses for positive or all values? 1/0</t>
+  </si>
+  <si>
+    <t>- Text value corresponding to the "label prefix" of the cell
+- Returns single quotation mark (') if the cell contains left-aligned text, 
+- double quotation mark (") if the cell contains right-aligned text,
+caret (^) if the cell contains centered text,
+backslash (\) if the cell contains fill-aligned text,
+empty text ("") if the cell contains anything else</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>bool: is cell locked? 1/0 . Seems opposite of doc defintion</t>
+  </si>
+  <si>
+    <t>row of cell</t>
+  </si>
+  <si>
+    <t>- Text value corresponding to the type of data in the cell.
+- "b" for blank if the cell is empty
+- "l" for label if the cell contains a text constant
+- "v" for value if the cell contains anything else.</t>
+  </si>
+  <si>
+    <t>Test-IsBlank</t>
+  </si>
+  <si>
+    <t>test for blankables using cell("type", addr )</t>
+  </si>
+  <si>
+    <t>returns array of 2 items.
+- 1st item in the array is the column width of the cell, rounded off to an integer. Each unit of column width is equal to the width of one character in the default font size
+- 2nd  item in the array is a Boolean value, the value is TRUE if the column width is the default or FALSE if the width has been explicitly set by the user. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -220,6 +340,32 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,11 +419,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="centerContinuous" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -298,14 +547,99 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA202E31-6E42-8F75-0DD3-DF061C0CD7BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4329111" y="242887"/>
+          <a:ext cx="3224213" cy="1652588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> details see: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>428625</xdr:rowOff>
     </xdr:to>
@@ -322,8 +656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6143625" y="361950"/>
-          <a:ext cx="2381250" cy="1847850"/>
+          <a:off x="6143624" y="361950"/>
+          <a:ext cx="5724525" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -378,6 +712,21 @@
             <a:t>- or maybe non-modal error box is possible</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>docs:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>about_formulas =&gt; https://support.microsoft.com/en-us/office/overview-of-formulas-in-excel-ecfdc708-9162-49e8-b993-c311f47ca173</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -386,10 +735,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}" name="Table2" displayName="Table2" ref="C12:F24" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="C12:F24" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C6F0DE67-3BF9-4D47-86C6-96CFAC0A98F2}" name="info_type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{373342DC-5E0F-4E7F-AE6D-1BB46FF1372B}" name="Description" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{0B6BA180-3C87-4492-AC1B-2B6700CE8126}" name="Example" dataDxfId="2">
+      <calculatedColumnFormula xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0AD3E6A4-7A4E-4ECE-84B9-2B4899635D25}" name="Result" dataDxfId="1">
+      <calculatedColumnFormula array="1" xml:space="preserve"> CELL("address", Fullname )</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00EB247-C141-4E0B-AF29-47B3A9AA5136}" name="Table1" displayName="Table1" ref="F11:G15" totalsRowShown="0">
   <autoFilter ref="F11:G15" xr:uid="{A00EB247-C141-4E0B-AF29-47B3A9AA5136}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{751264A7-43B1-4E5A-AE5C-A8C561D2B7AD}" name="Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{751264A7-43B1-4E5A-AE5C-A8C561D2B7AD}" name="Name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{E4B7F159-9560-4BBA-90CE-88BF7D05F15C}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -692,11 +1058,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951EDD36-14E4-4FF6-A142-01E11440C887}">
+  <dimension ref="E8:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="str" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1" xml:space="preserve"> CELL("filename")</f>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF54738-3515-4F15-82EF-1BC9946713EE}">
-  <dimension ref="C6:K53"/>
+  <dimension ref="B6:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -719,13 +1109,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -772,13 +1162,19 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="24" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="str" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1" xml:space="preserve"> CELL("address", Fullname_WithSheet )</f>
+        <v>$D$13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="6" t="str">
         <f ca="1" xml:space="preserve">  _xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -788,7 +1184,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,7 +1192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
@@ -804,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
@@ -820,13 +1216,13 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="31" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D31" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -836,7 +1232,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
@@ -852,13 +1248,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D35" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -884,13 +1280,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D40" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -916,13 +1312,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D43" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -954,7 +1350,7 @@
       </c>
       <c r="D47" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D47" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -980,13 +1376,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D51" ca="1">CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -1018,7 +1414,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237EB2E-0823-4521-9143-79B57392664D}">
+  <dimension ref="C7:J24"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="73.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("address", Fullname )</v>
+      </c>
+      <c r="F13" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1" xml:space="preserve"> CELL("address", Fullname )</f>
+        <v>'[Detecting Filepath - 2022.xlsx]Extra Info'!$D$24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("col", Fullname )</v>
+      </c>
+      <c r="F14" s="15" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1" xml:space="preserve"> CELL("col", Fullname )</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("color", Fullname )</v>
+      </c>
+      <c r="F15" s="15" cm="1">
+        <f t="array" aca="1" ref="F15" ca="1" xml:space="preserve"> CELL("color", Fullname )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("contents", Fullname )</v>
+      </c>
+      <c r="F16" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F16" ca="1" xml:space="preserve"> CELL("contents", Fullname )</f>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("filename", Fullname )</v>
+      </c>
+      <c r="F17" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F17" ca="1" xml:space="preserve"> CELL("filename", Fullname )</f>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]Extra Info</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("format", Fullname )</v>
+      </c>
+      <c r="F18" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F18" ca="1" xml:space="preserve"> CELL("format", Fullname )</f>
+        <v>G</v>
+      </c>
+      <c r="J18" t="str" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1" xml:space="preserve"> CELL("address", Fullname )</f>
+        <v>'[Detecting Filepath - 2022.xlsx]Extra Info'!$D$24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("parentheses", Fullname )</v>
+      </c>
+      <c r="F19" s="15" cm="1">
+        <f t="array" aca="1" ref="F19" ca="1" xml:space="preserve"> CELL("parentheses", Fullname )</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("prefix", Fullname )</v>
+      </c>
+      <c r="F20" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F20" ca="1" xml:space="preserve"> CELL("prefix", Fullname )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("protect", E18 )</v>
+      </c>
+      <c r="F21" s="15" cm="1">
+        <f t="array" aca="1" ref="F21" ca="1" xml:space="preserve"> CELL("protect", E18 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("row", Fullname )</v>
+      </c>
+      <c r="F22" s="15" cm="1">
+        <f t="array" aca="1" ref="F22" ca="1" xml:space="preserve"> CELL("row", Fullname )</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="C23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("type", Fullname )</v>
+      </c>
+      <c r="F23" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F23" ca="1" xml:space="preserve"> CELL("type", Fullname )</f>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="C24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
+        <v>= CELL("contents", Fullname )</v>
+      </c>
+      <c r="F24" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F24" ca="1" xml:space="preserve"> CELL("contents", Fullname )</f>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D03B96E-6CE8-4774-9870-B10043189B56}">
   <dimension ref="B8:Q34"/>
   <sheetViews>
@@ -1061,7 +1698,7 @@
       </c>
       <c r="G12" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -1077,7 +1714,7 @@
       </c>
       <c r="G13" t="str">
         <f ca="1">Fullname</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -1107,26 +1744,26 @@
     <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q21" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q22" t="str">
         <f ca="1" xml:space="preserve"> Fullname</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E26" s="12" t="str">
         <f ca="1" xml:space="preserve">  _xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="str" cm="1">
         <f t="array" aca="1" ref="G26" ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))- MAX(IF(NOT(ISERR(SEARCH("\",CELL("filename"), ROW(1:255)))),SEARCH("\",CELL("filename"),ROW(1:255)))))</f>
-        <v>\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.2">
@@ -1135,7 +1772,7 @@
       </c>
       <c r="G27" t="str" cm="1">
         <f t="array" aca="1" ref="G27" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>Detecting Filepath - 2022.xlsx</v>
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.2">
@@ -1144,19 +1781,19 @@
       </c>
       <c r="G28" t="str" cm="1">
         <f t="array" aca="1" ref="G28" ca="1" xml:space="preserve"> CELL("filename")</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" t="str">
         <f ca="1">E26</f>
-        <v>C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" t="str">
         <f ca="1">G27</f>
-        <v>Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
+        <v>Detecting Filepath - 2022.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -1167,12 +1804,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5418F180-DCA6-49BC-8F5C-F25B15842864}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1830,61 @@
       </c>
       <c r="O5" t="str">
         <f ca="1">_xlfn.ENCODEURL( Fullname_WithSheet )</f>
-        <v>C%3A%5CUsers%5Ccppmo_000%5CSkyDrive%5CDocuments%5C2022%5CPower-BI%5CMy_Github%5CninMonkQuery-examples%5CExcel%5C%5BDynamically%20Detect%20Current%20Folder%20of%20Workbook.2022.%F0%9F%8E%A8.xlsx%5DSummary</v>
+        <v>C%3A%5CTemp%5C%5BDetecting%20Filepath%20-%202022.xlsx%5Dinfo_type%20Info</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14:E17" ca="1" xml:space="preserve"> Table1[]</f>
+        <v>FullName_WithSheet</v>
+      </c>
+      <c r="E14" t="str">
+        <f ca="1"/>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1" xml:space="preserve"> CELL( "address", Table1[] )</f>
+        <v>'[Detecting Filepath - 2022.xlsx]Summary'!$F$12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f ca="1"/>
+        <v>FullName</v>
+      </c>
+      <c r="E15" t="str">
+        <f ca="1"/>
+        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1" xml:space="preserve"> CELL("address",  L14 )</f>
+        <v>$L$14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f ca="1"/>
+        <v>Worksheet</v>
+      </c>
+      <c r="E16" t="str">
+        <f ca="1"/>
+        <v>c</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <f ca="1"/>
+        <v>a</v>
       </c>
     </row>
   </sheetData>
@@ -1201,12 +1892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4487DC2-08DA-4C53-A6CF-E10115826B0C}">
   <dimension ref="C4:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19:N20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1257,6 +1948,24 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>22</v>
@@ -1275,6 +1984,24 @@
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
     </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>20</v>

--- a/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
+++ b/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cppmo_000\SkyDrive\Documents\2022\Power-BI\My_Github\ninMonkQuery-examples\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\2023\BI\git\ninMonkQuery-examples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4329F4-6393-4639-A71E-43359EF1C95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9FB9B-5193-4B0D-9A2C-713E658B0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="2205" windowWidth="34410" windowHeight="15555" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29070" windowHeight="17205" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Sheet1" sheetId="5" r:id="rId1"/>
@@ -69,115 +69,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
+    <t>Cell Func Value</t>
+  </si>
+  <si>
+    <t>There are other methods for older versions of Excel. I went for what seemed to be the cleanest</t>
+  </si>
+  <si>
     <t>C:\Users\Username\..\Dynamicasdf</t>
   </si>
   <si>
     <t>C:\Users\Username\...\Dynamically Detect Current Folder of Workbook.2022.xlsx]Sheet1</t>
   </si>
   <si>
-    <t>FullName</t>
+    <t>Fullname And Sheet</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>using = CELL("filename"), from this includes the worksheet name</t>
+  </si>
+  <si>
+    <t>Fn</t>
   </si>
   <si>
     <t>Fullname</t>
   </si>
   <si>
-    <t>Fullname And Sheet</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>using = CELL("filename"), from this includes the worksheet name</t>
-  </si>
-  <si>
-    <t>There are other methods for older versions of Excel. I went for what seemed to be the cleanest</t>
-  </si>
-  <si>
     <t>C:\Users\Username\...\Dynamically Detect Current Folder of Workbook.2022.xlsx</t>
   </si>
   <si>
     <t>Using Excels New Text Functions</t>
   </si>
   <si>
-    <t>Worksheet</t>
-  </si>
-  <si>
-    <t>FullName_WithSheet</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>Fn</t>
-  </si>
-  <si>
-    <t>To create lambdas</t>
-  </si>
-  <si>
-    <t>reusable path lookup</t>
-  </si>
-  <si>
-    <t>IF(
-      NOT( ISFORMULA(  Fullname_WithSheet )), "&lt;plain text&gt;",
-      FORMULATEXT( Fullname_WithSheet ) )</t>
-  </si>
-  <si>
-    <t>coerce whitespace</t>
-  </si>
-  <si>
-    <t>todo: this
-     will replace newline with "␤", cr with … etc….</t>
-  </si>
-  <si>
-    <t>oldschool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old2 </t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>no relations all inline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see: https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf </t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/en-us/office/filterxml-function-4df72efc-11ec-4951-86f5-c1374812f5b7?ns=excel&amp;version=90&amp;ui=en-us&amp;rs=en-us&amp;ad=us</t>
-  </si>
-  <si>
-    <t>xml xpath query on same url, wrapper</t>
-  </si>
-  <si>
-    <t>Summarize Cell Data Copntents</t>
-  </si>
-  <si>
-    <t>using integer(), cell(), isformula(), etc
-    summarizes as humanized string[s]</t>
-  </si>
-  <si>
-    <t>Cell Func Value</t>
-  </si>
-  <si>
     <t>Using info_type values</t>
   </si>
   <si>
@@ -187,58 +114,40 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>address</t>
   </si>
   <si>
+    <t>reference of first cell, *in a reference*, as text</t>
+  </si>
+  <si>
     <t>col</t>
   </si>
   <si>
+    <t>column number of (first) cell</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
+    <t>bool: is cell formatted in color for negatives? 1/0</t>
+  </si>
+  <si>
     <t>contents</t>
   </si>
   <si>
+    <t>value of first cell. Not a formula.</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>full path including worksheet</t>
+  </si>
+  <si>
     <t>format</t>
-  </si>
-  <si>
-    <t>parentheses</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>reference of first cell, *in a reference*, as text</t>
-  </si>
-  <si>
-    <t>bool: is cell formatted in color for negatives? 1/0</t>
-  </si>
-  <si>
-    <t>value of first cell. Not a formula.</t>
-  </si>
-  <si>
-    <t>column number of (first) cell</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>full path including worksheet</t>
   </si>
   <si>
     <t>first cells format string
@@ -246,7 +155,13 @@
 - Returns "()" at the end of the text value if the cell is formatted with parentheses for positive or all values</t>
   </si>
   <si>
+    <t>parentheses</t>
+  </si>
+  <si>
     <t>bool: is formatted with parentheses for positive or all values? 1/0</t>
+  </si>
+  <si>
+    <t>prefix</t>
   </si>
   <si>
     <t>- Text value corresponding to the "label prefix" of the cell
@@ -257,16 +172,19 @@
 empty text ("") if the cell contains anything else</t>
   </si>
   <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>addr</t>
+    <t>protect</t>
   </si>
   <si>
     <t>bool: is cell locked? 1/0 . Seems opposite of doc defintion</t>
   </si>
   <si>
+    <t>row</t>
+  </si>
+  <si>
     <t>row of cell</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t>- Text value corresponding to the type of data in the cell.
@@ -275,15 +193,97 @@
 - "v" for value if the cell contains anything else.</t>
   </si>
   <si>
-    <t>Test-IsBlank</t>
-  </si>
-  <si>
-    <t>test for blankables using cell("type", addr )</t>
+    <t>width</t>
   </si>
   <si>
     <t>returns array of 2 items.
 - 1st item in the array is the column width of the cell, rounded off to an integer. Each unit of column width is equal to the width of one character in the default font size
 - 2nd  item in the array is a Boolean value, the value is TRUE if the column width is the default or FALSE if the width has been explicitly set by the user. </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>FullName_WithSheet</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>oldschool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old2 </t>
+  </si>
+  <si>
+    <t>no relations all inline</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see: https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf </t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>addr</t>
+  </si>
+  <si>
+    <t>To create lambdas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/en-us/office/filterxml-function-4df72efc-11ec-4951-86f5-c1374812f5b7?ns=excel&amp;version=90&amp;ui=en-us&amp;rs=en-us&amp;ad=us</t>
+  </si>
+  <si>
+    <t>xml xpath query on same url, wrapper</t>
+  </si>
+  <si>
+    <t>reusable path lookup</t>
+  </si>
+  <si>
+    <t>IF(
+      NOT( ISFORMULA(  Fullname_WithSheet )), "&lt;plain text&gt;",
+      FORMULATEXT( Fullname_WithSheet ) )</t>
+  </si>
+  <si>
+    <t>Test-IsBlank</t>
+  </si>
+  <si>
+    <t>test for blankables using cell("type", addr )</t>
+  </si>
+  <si>
+    <t>coerce whitespace</t>
+  </si>
+  <si>
+    <t>todo: this
+     will replace newline with "␤", cr with … etc….</t>
+  </si>
+  <si>
+    <t>Summarize Cell Data Copntents</t>
+  </si>
+  <si>
+    <t>using integer(), cell(), isformula(), etc
+    summarizes as humanized string[s]</t>
   </si>
 </sst>
 </file>
@@ -440,20 +440,7 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Consolas"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="centerContinuous" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -528,7 +515,20 @@
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="centerContinuous" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}" name="Table2" displayName="Table2" ref="C12:F24" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}" name="Table2" displayName="Table2" ref="C12:F24" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="C12:F24" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C6F0DE67-3BF9-4D47-86C6-96CFAC0A98F2}" name="info_type" dataDxfId="4"/>
@@ -755,7 +755,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A00EB247-C141-4E0B-AF29-47B3A9AA5136}" name="Table1" displayName="Table1" ref="F11:G15" totalsRowShown="0">
   <autoFilter ref="F11:G15" xr:uid="{A00EB247-C141-4E0B-AF29-47B3A9AA5136}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{751264A7-43B1-4E5A-AE5C-A8C561D2B7AD}" name="Name" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{751264A7-43B1-4E5A-AE5C-A8C561D2B7AD}" name="Name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{E4B7F159-9560-4BBA-90CE-88BF7D05F15C}" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -763,7 +763,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1051,7 +1051,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,18 +1062,18 @@
   <dimension ref="E8:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E8" s="12" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str" cm="1">
-        <f t="array" aca="1" ref="F8" ca="1" xml:space="preserve"> CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <f t="array" aca="1" ref="F8" ca="1">CELL("filename")</f>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
     </row>
   </sheetData>
@@ -1096,26 +1096,26 @@
   <sheetData>
     <row r="6" spans="3:11" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="str" cm="1">
+      <c r="D13" s="6" t="str">
         <f t="array" aca="1" ref="D13" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1130,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
@@ -1148,13 +1148,13 @@
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8" t="str">
-        <f ca="1" xml:space="preserve"> IF(
+        <f ca="1">IF(
       NOT( _xlfn.ISFORMULA(  Fullname_WithSheet )), "&lt;plain text&gt;",
       _xlfn.FORMULATEXT( Fullname_WithSheet ) )</f>
-        <v>=CELL("filename")</v>
+        <v>{=CELL("filename")}</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1163,18 +1163,18 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" t="str" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1" xml:space="preserve"> CELL("address", Fullname_WithSheet )</f>
+      <c r="B17" t="str">
+        <f t="array" aca="1" ref="B17" ca="1">CELL("address", Fullname_WithSheet )</f>
         <v>$D$13</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f ca="1" xml:space="preserve">  _xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <f ca="1">_xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1197,18 +1197,18 @@
         <v>6</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D27" s="8" t="str">
-        <f ca="1" xml:space="preserve"> IF(
+        <f ca="1">IF(
       NOT( _xlfn.ISFORMULA(  Fullname_WithSheet )), "&lt;plain text&gt;",
       _xlfn.FORMULATEXT( Fullname_WithSheet ) )</f>
-        <v>=CELL("filename")</v>
+        <v>{=CELL("filename")}</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -1216,13 +1216,13 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="6" t="str" cm="1">
+      <c r="D31" s="6" t="str">
         <f t="array" aca="1" ref="D31" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1237,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
@@ -1248,13 +1248,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="6" t="str" cm="1">
+      <c r="D35" s="6" t="str">
         <f t="array" aca="1" ref="D35" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1269,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
@@ -1280,13 +1280,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6" t="str" cm="1">
+      <c r="D40" s="6" t="str">
         <f t="array" aca="1" ref="D40" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1301,7 +1301,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
@@ -1312,13 +1312,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="6" t="str" cm="1">
+      <c r="D43" s="6" t="str">
         <f t="array" aca="1" ref="D43" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.2">
@@ -1344,13 +1344,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="6" t="str" cm="1">
+      <c r="D47" s="6" t="str">
         <f t="array" aca="1" ref="D47" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1365,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
@@ -1380,9 +1380,9 @@
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="6" t="str" cm="1">
+      <c r="D51" s="6" t="str">
         <f t="array" aca="1" ref="D51" ca="1">CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -1397,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
@@ -1410,7 +1410,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1432,225 +1432,225 @@
   <sheetData>
     <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E13" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("address", Fullname )</v>
-      </c>
-      <c r="F13" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F13" ca="1" xml:space="preserve"> CELL("address", Fullname )</f>
-        <v>'[Detecting Filepath - 2022.xlsx]Extra Info'!$D$24</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F13" s="15" t="str">
+        <f t="shared" ref="F13:F24" ca="1" si="0">CELL("address",Fullname)</f>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C14" s="13" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E14" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("col", Fullname )</v>
-      </c>
-      <c r="F14" s="15" cm="1">
-        <f t="array" aca="1" ref="F14" ca="1" xml:space="preserve"> CELL("col", Fullname )</f>
-        <v>4</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E15" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("color", Fullname )</v>
-      </c>
-      <c r="F15" s="15" cm="1">
-        <f t="array" aca="1" ref="F15" ca="1" xml:space="preserve"> CELL("color", Fullname )</f>
-        <v>0</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F15" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E16" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("contents", Fullname )</v>
-      </c>
-      <c r="F16" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F16" ca="1" xml:space="preserve"> CELL("contents", Fullname )</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C17" s="13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E17" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("filename", Fullname )</v>
-      </c>
-      <c r="F17" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F17" ca="1" xml:space="preserve"> CELL("filename", Fullname )</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]Extra Info</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F17" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="94.5" x14ac:dyDescent="0.2">
       <c r="C18" s="13" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E18" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("format", Fullname )</v>
-      </c>
-      <c r="F18" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F18" ca="1" xml:space="preserve"> CELL("format", Fullname )</f>
-        <v>G</v>
-      </c>
-      <c r="J18" t="str" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1" xml:space="preserve"> CELL("address", Fullname )</f>
-        <v>'[Detecting Filepath - 2022.xlsx]Extra Info'!$D$24</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F18" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="array" aca="1" ref="J18" ca="1">CELL("address", Fullname )</f>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E19" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("parentheses", Fullname )</v>
-      </c>
-      <c r="F19" s="15" cm="1">
-        <f t="array" aca="1" ref="F19" ca="1" xml:space="preserve"> CELL("parentheses", Fullname )</f>
-        <v>0</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F19" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="C20" s="13" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E20" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("prefix", Fullname )</v>
-      </c>
-      <c r="F20" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F20" ca="1" xml:space="preserve"> CELL("prefix", Fullname )</f>
-        <v/>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F20" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="21" spans="3:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="C21" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E21" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("protect", E18 )</v>
-      </c>
-      <c r="F21" s="15" cm="1">
-        <f t="array" aca="1" ref="F21" ca="1" xml:space="preserve"> CELL("protect", E18 )</f>
-        <v>1</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E22" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("row", Fullname )</v>
-      </c>
-      <c r="F22" s="15" cm="1">
-        <f t="array" aca="1" ref="F22" ca="1" xml:space="preserve"> CELL("row", Fullname )</f>
-        <v>24</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F22" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="78.75" x14ac:dyDescent="0.2">
       <c r="C23" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E23" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("type", Fullname )</v>
-      </c>
-      <c r="F23" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F23" ca="1" xml:space="preserve"> CELL("type", Fullname )</f>
-        <v>l</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="141.75" x14ac:dyDescent="0.2">
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F23" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="126" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E24" s="15" t="str">
-        <f ca="1" xml:space="preserve"> IF(_xlfn.ISFORMULA( Table2[[#This Row],[Result]] ), _xlfn.FORMULATEXT( Table2[[#This Row],[Result]] ), "&lt;none&gt;" )</f>
-        <v>= CELL("contents", Fullname )</v>
-      </c>
-      <c r="F24" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="F24" ca="1" xml:space="preserve"> CELL("contents", Fullname )</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <f ca="1">IF(_xlfn.ISFORMULA(Table2[[#This Row],[Result]]),_xlfn.FORMULATEXT(Table2[[#This Row],[Result]]),"&lt;none&gt;")</f>
+        <v>=@CELL("address",Fullname)</v>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1669,20 +1669,20 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D8" cm="1">
+      <c r="D8">
         <f t="array" aca="1" ref="D8" ca="1">CELL("color")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -1694,11 +1694,11 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G12" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -1710,11 +1710,11 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G13" t="str">
         <f ca="1">Fullname</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -1726,10 +1726,10 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -1738,62 +1738,62 @@
         <v>#N/A</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q21" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q22" t="str">
-        <f ca="1" xml:space="preserve"> Fullname</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <f ca="1">Fullname</f>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
     </row>
     <row r="26" spans="5:17" x14ac:dyDescent="0.2">
       <c r="E26" s="12" t="str">
-        <f ca="1" xml:space="preserve">  _xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <f ca="1">_xlfn.TEXTBEFORE(Fullname_WithSheet, "]")</f>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="str" cm="1">
+        <v>48</v>
+      </c>
+      <c r="G26" t="str">
         <f t="array" aca="1" ref="G26" ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))- MAX(IF(NOT(ISERR(SEARCH("\",CELL("filename"), ROW(1:255)))),SEARCH("\",CELL("filename"),ROW(1:255)))))</f>
-        <v>[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="str" cm="1">
+        <v>49</v>
+      </c>
+      <c r="G27" t="str">
         <f t="array" aca="1" ref="G27" ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>Detecting Filepath - 2022.xlsx</v>
+        <v>Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
     </row>
     <row r="28" spans="5:17" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" t="str" cm="1">
-        <f t="array" aca="1" ref="G28" ca="1" xml:space="preserve"> CELL("filename")</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>50</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="array" aca="1" ref="G28" ca="1">CELL("filename")</f>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" t="str">
         <f ca="1">E26</f>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E34" t="str">
         <f ca="1">G27</f>
-        <v>Detecting Filepath - 2022.xlsx</v>
+        <v>Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -1816,74 +1816,69 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="O5" t="str">
         <f ca="1">_xlfn.ENCODEURL( Fullname_WithSheet )</f>
-        <v>C%3A%5CTemp%5C%5BDetecting%20Filepath%20-%202022.xlsx%5Dinfo_type%20Info</v>
+        <v>H%3A%5Cdata%5C2023%5CBI%5Cgit%5CninMonkQuery-examples%5CExcel%5C%5BDynamically%20Detect%20Current%20Folder%20of%20Workbook.2022.%F0%9F%8E%A8.xlsx%5DMain%20Sheet1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D14" t="str" cm="1">
-        <f t="array" aca="1" ref="D14:E17" ca="1" xml:space="preserve"> Table1[]</f>
+      <c r="D14" t="str">
+        <f t="array" ref="D14:E17">Table1[]</f>
         <v>FullName_WithSheet</v>
       </c>
       <c r="E14" t="str">
         <f ca="1"/>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx]info_type Info</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1" xml:space="preserve"> CELL( "address", Table1[] )</f>
-        <v>'[Detecting Filepath - 2022.xlsx]Summary'!$F$12</v>
+        <v>54</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="array" aca="1" ref="L14" ca="1">CELL( "address", Table1[] )</f>
+        <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Summary'!$F$12</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D15" t="str">
-        <f ca="1"/>
         <v>FullName</v>
       </c>
       <c r="E15" t="str">
         <f ca="1"/>
-        <v>C:\Temp\[Detecting Filepath - 2022.xlsx</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1" xml:space="preserve"> CELL("address",  L14 )</f>
+        <v>55</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="array" aca="1" ref="L15" ca="1">CELL("address",  L14 )</f>
         <v>$L$14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" t="str">
-        <f ca="1"/>
         <v>Worksheet</v>
       </c>
       <c r="E16" t="str">
-        <f ca="1"/>
         <v>c</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17">
-        <f ca="1"/>
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f ca="1"/>
         <v>a</v>
       </c>
     </row>
@@ -1904,22 +1899,22 @@
   <sheetData>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
       <c r="P5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E8" s="11" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1932,12 +1927,12 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="3:16" ht="38.25" x14ac:dyDescent="0.2">
       <c r="E11" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1950,12 +1945,12 @@
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -1968,12 +1963,12 @@
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E20" s="11" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1986,12 +1981,12 @@
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="E23" s="11" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -2004,12 +1999,12 @@
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="E32" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -2022,12 +2017,12 @@
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="E37" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2040,12 +2035,12 @@
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="E43" s="11" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>

--- a/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
+++ b/Excel/Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26818"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\2023\BI\git\ninMonkQuery-examples\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B9FB9B-5193-4B0D-9A2C-713E658B0AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7EE3C4-9E34-4792-86CE-AC99870F1AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="29070" windowHeight="17205" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
+    <workbookView xWindow="2445" yWindow="3255" windowWidth="33645" windowHeight="17595" xr2:uid="{ABBA1A3B-FB26-4F85-937F-1029D98E99D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Extra Info" sheetId="1" r:id="rId2"/>
-    <sheet name="info_type Info" sheetId="6" r:id="rId3"/>
-    <sheet name="Summary" sheetId="2" r:id="rId4"/>
-    <sheet name="scratchCellTest" sheetId="4" r:id="rId5"/>
-    <sheet name="Todo.Lambda" sheetId="3" r:id="rId6"/>
+    <sheet name="Todo.Lambda" sheetId="3" r:id="rId1"/>
+    <sheet name="Main Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Extra Info" sheetId="1" r:id="rId3"/>
+    <sheet name="info_type Info" sheetId="6" r:id="rId4"/>
+    <sheet name="Summary" sheetId="2" r:id="rId5"/>
+    <sheet name="scratchCellTest" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Fullname">'Extra Info'!$D$24</definedName>
@@ -547,91 +547,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61911</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA202E31-6E42-8F75-0DD3-DF061C0CD7BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4329111" y="242887"/>
-          <a:ext cx="3224213" cy="1652588"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>for</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> details see: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -734,6 +649,91 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61911</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA202E31-6E42-8F75-0DD3-DF061C0CD7BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4329111" y="242887"/>
+          <a:ext cx="3224213" cy="1652588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>for</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> details see: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>https://support.microsoft.com/en-us/office/cell-function-51bd39a5-f338-4dbe-a33f-955d67c2b2cf</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}" name="Table2" displayName="Table2" ref="C12:F24" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="C12:F24" xr:uid="{201C011D-66F4-44F1-86E6-8847490044C6}"/>
@@ -763,9 +763,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -803,7 +803,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -909,7 +909,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1051,18 +1051,188 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4487DC2-08DA-4C53-A6CF-E10115826B0C}">
+  <dimension ref="C4:P43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E37" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951EDD36-14E4-4FF6-A142-01E11440C887}">
   <dimension ref="E8:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1243,7 @@
       </c>
       <c r="F8" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
     </row>
   </sheetData>
@@ -1081,12 +1251,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF54738-3515-4F15-82EF-1BC9946713EE}">
   <dimension ref="B6:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1109,13 +1279,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="6" t="str">
         <f t="array" aca="1" ref="D13" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1168,7 +1338,7 @@
         <v>$D$13</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
@@ -1216,13 +1386,13 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="6" t="str">
         <f t="array" aca="1" ref="D31" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -1248,13 +1418,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="6" t="str">
         <f t="array" aca="1" ref="D35" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
@@ -1280,13 +1450,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="str">
         <f t="array" aca="1" ref="D40" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1312,13 +1482,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="6" t="str">
         <f t="array" aca="1" ref="D43" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
@@ -1344,13 +1514,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="6" t="str">
         <f t="array" aca="1" ref="D47" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -1376,13 +1546,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="6" t="str">
         <f t="array" aca="1" ref="D51" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -1414,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237EB2E-0823-4521-9143-79B57392664D}">
   <dimension ref="C7:J24"/>
   <sheetViews>
@@ -1629,7 +1799,7 @@
         <v>'[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Extra Info'!$D$24</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="126" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="141.75" x14ac:dyDescent="0.2">
       <c r="C24" s="13" t="s">
         <v>38</v>
       </c>
@@ -1655,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D03B96E-6CE8-4774-9870-B10043189B56}">
   <dimension ref="B8:Q34"/>
   <sheetViews>
@@ -1698,7 +1868,7 @@
       </c>
       <c r="G12" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -1744,7 +1914,7 @@
     <row r="21" spans="5:17" x14ac:dyDescent="0.2">
       <c r="Q21" t="str">
         <f ca="1">Fullname_WithSheet</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
     </row>
     <row r="22" spans="5:17" x14ac:dyDescent="0.2">
@@ -1763,7 +1933,7 @@
       </c>
       <c r="G26" t="str">
         <f t="array" aca="1" ref="G26" ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))- MAX(IF(NOT(ISERR(SEARCH("\",CELL("filename"), ROW(1:255)))),SEARCH("\",CELL("filename"),ROW(1:255)))))</f>
-        <v>\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
     </row>
     <row r="27" spans="5:17" x14ac:dyDescent="0.2">
@@ -1781,7 +1951,7 @@
       </c>
       <c r="G28" t="str">
         <f t="array" aca="1" ref="G28" ca="1">CELL("filename")</f>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
@@ -1804,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5418F180-DCA6-49BC-8F5C-F25B15842864}">
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -1830,7 +2000,7 @@
       </c>
       <c r="O5" t="str">
         <f ca="1">_xlfn.ENCODEURL( Fullname_WithSheet )</f>
-        <v>H%3A%5Cdata%5C2023%5CBI%5Cgit%5CninMonkQuery-examples%5CExcel%5C%5BDynamically%20Detect%20Current%20Folder%20of%20Workbook.2022.%F0%9F%8E%A8.xlsx%5DMain%20Sheet1</v>
+        <v>H%3A%5Cdata%5C2023%5CBI%5Cgit%5CninMonkQuery-examples%5CExcel%5C%5BDynamically%20Detect%20Current%20Folder%20of%20Workbook.2022.%F0%9F%8E%A8.xlsx%5DTodo.Lambda</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1840,7 +2010,7 @@
       </c>
       <c r="E14" t="str">
         <f ca="1"/>
-        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Main Sheet1</v>
+        <v>H:\data\2023\BI\git\ninMonkQuery-examples\Excel\[Dynamically Detect Current Folder of Workbook.2022.🎨.xlsx]Todo.Lambda</v>
       </c>
       <c r="K14" t="s">
         <v>54</v>
@@ -1885,174 +2055,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4487DC2-08DA-4C53-A6CF-E10115826B0C}">
-  <dimension ref="C4:P43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="E8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="E11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="E20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="5:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="E23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="E32" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-    </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="E37" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="5:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="E43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>